--- a/docs/pinTables.xlsx
+++ b/docs/pinTables.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shura\HS2024_Projects\Computer-Architecture\Greenhouse-Project\CA-Project\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C9A9B0-5144-4E68-9927-754AD54749F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LeftSide" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="RightSide" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Bottom" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="LeftSide" sheetId="1" r:id="rId1"/>
+    <sheet name="RightSide" sheetId="2" r:id="rId2"/>
+    <sheet name="Bottom" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,388 +27,373 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
-  <si>
-    <t xml:space="preserve">Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOREF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+3V3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Node 1, read out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Node 2, read out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Node 3, read out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Node 4, read out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Node 5, read out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Node 6, read out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Node 7, read out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Node 8, read out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Node 9, read out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D21/SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Input/I2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BME280 (I2C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D20/SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital/GPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAN control signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM control for SERVO VALVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENABLE of LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS of LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button interrupt (EMERGENCY STOP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button interrupt (Menu ENTER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1/TX0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D0/Tx1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D0 of LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1 of LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2 of LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3 of LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button interrupt (Menu DOWN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button interrupt (Menu UP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top Row Pins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom Row Pins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIPO (SPI) for SD-Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPI (SPI) for SD-Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCK (SPI) for SD-Card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S̄S̄ (SPI) for SD-Card</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IOREF</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>+3V3</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>+5V</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>Soil Node 1, read out</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Soil Node 2, read out</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Soil Node 3, read out</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Soil Node 4, read out</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Soil Node 5, read out</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Soil Node 6, read out</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Soil Node 7, read out</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Soil Node 8, read out</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Soil Node 9, read out</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>D21/SCL</t>
+  </si>
+  <si>
+    <t>Digital Input/I2C</t>
+  </si>
+  <si>
+    <t>BME280 (I2C)</t>
+  </si>
+  <si>
+    <t>D20/SDA</t>
+  </si>
+  <si>
+    <t>AREF</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>Digital/GPIO</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>FAN control signal</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>PWM control for SERVO VALVE</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>ENABLE of LCD</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>RS of LCD</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Button interrupt (Menu ENTER)</t>
+  </si>
+  <si>
+    <t>D1/TX0</t>
+  </si>
+  <si>
+    <t>D0/Tx1</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D0 of LCD</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D1 of LCD</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D2 of LCD</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D3 of LCD</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>Button interrupt (Menu DOWN)</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>Button interrupt (Menu UP)</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>Top Row Pins</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Bottom Row Pins</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>CIPO (SPI) for SD-Card</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>COPI (SPI) for SD-Card</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>SCK (SPI) for SD-Card</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>S̄S̄ (SPI) for SD-Card</t>
+  </si>
+  <si>
+    <t>Status LED control (Red)</t>
+  </si>
+  <si>
+    <t>Status LED control (Green)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -434,7 +424,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -442,61 +432,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -555,28 +504,356 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -586,7 +863,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -598,7 +875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -610,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -620,7 +897,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -630,7 +907,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -640,7 +917,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -650,7 +927,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -660,7 +937,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -672,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -684,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -696,7 +973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -708,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -720,7 +997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
@@ -732,7 +1009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -744,7 +1021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>22</v>
@@ -756,7 +1033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -768,7 +1045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -780,7 +1057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
@@ -792,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>28</v>
@@ -804,7 +1081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>30</v>
@@ -814,7 +1091,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>31</v>
@@ -824,7 +1101,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>32</v>
@@ -834,7 +1111,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>33</v>
@@ -844,7 +1121,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>34</v>
@@ -854,7 +1131,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -862,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
@@ -871,36 +1148,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="92" zoomScaleNormal="92" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.55"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -910,7 +1179,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>37</v>
@@ -922,7 +1191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>40</v>
@@ -934,7 +1203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -946,7 +1215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -956,7 +1225,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>43</v>
@@ -966,7 +1235,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>45</v>
@@ -976,7 +1245,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>46</v>
@@ -986,7 +1255,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>47</v>
@@ -998,7 +1267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>49</v>
@@ -1008,7 +1277,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>50</v>
@@ -1016,9 +1285,11 @@
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1030,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
@@ -1038,9 +1309,11 @@
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>52</v>
@@ -1049,10 +1322,10 @@
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>54</v>
@@ -1061,10 +1334,10 @@
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>56</v>
@@ -1073,10 +1346,10 @@
         <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>58</v>
@@ -1085,25 +1358,22 @@
         <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
@@ -1112,10 +1382,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
@@ -1124,7 +1394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>3</v>
@@ -1136,81 +1406,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -1219,9 +1489,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
@@ -1231,58 +1501,50 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.22"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1300,10 +1562,10 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -1311,17 +1573,17 @@
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -1329,17 +1591,17 @@
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -1347,17 +1609,17 @@
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -1365,17 +1627,17 @@
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -1383,17 +1645,17 @@
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -1401,17 +1663,17 @@
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -1419,17 +1681,17 @@
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -1437,17 +1699,17 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
@@ -1455,17 +1717,17 @@
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -1473,17 +1735,17 @@
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>42</v>
@@ -1491,17 +1753,17 @@
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
@@ -1509,17 +1771,17 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>42</v>
@@ -1527,17 +1789,17 @@
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>42</v>
@@ -1545,58 +1807,58 @@
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -1615,24 +1877,7 @@
       <c r="H19" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<DataMashup xmlns="http://schemas.microsoft.com/DataMashup">AAAAABQDAABQSwMEFAACAAgACmCdWUq0BM+kAAAA9wAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAhY9NDoIwFISvQrqnP7Ah5FEXbiUxMTFum1KhER6GFsvdXHgkryBGUXcuZ+ZLZuZ+vcFq6troYgZneyyIoJxEBnVfWawLMvpjnJGVhK3SJ1WbaIbR5ZOrCtJ4f84ZCyHQkNJ+qFnCuWCHcrPTjekU+cD2PxxbdF6hNkTC/jVGJlSkGRUZpxzYYkJp8Qsk895n+mPCemz9OBhpMJ4rgC0a2PuEfABQSwMEFAACAAgACmCdWQ/K6aukAAAA6QAAABMAHABbQ29udGVudF9UeXBlc10ueG1sIKIYACigFAAAAAAAAAAAAAAAAAAAAAAAAAAAAG2OSw7CMAxErxJ5n7qwQAg1ZQHcgAtEwf2I5qPGReFsLDgSVyBtd4ilZ+Z55vN6V8dkB/GgMfbeKdgUJQhyxt961yqYuJF7ONbV9Rkoihx1UUHHHA6I0XRkdSx8IJedxo9Wcz7HFoM2d90Sbstyh8Y7JseS5x9QV2dq9DSwuKQsr7UZB3Fac3OVAqbEuMj4l7A/eR3C0BvN2cQkbZR2IXEZXn8BUEsDBBQAAgAIAApgnVkoike4DgAAABEAAAATABwARm9ybXVsYXMvU2VjdGlvbjEubSCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAAArTk0uyczPUwiG0IbWAFBLAQItABQAAgAIAApgnVlKtATPpAAAAPcAAAASAAAAAAAAAAAAAAAAAAAAAABDb25maWcvUGFja2FnZS54bWxQSwECLQAUAAIACAAKYJ1ZD8rpq6QAAADpAAAAEwAAAAAAAAAAAAAAAADwAAAAW0NvbnRlbnRfVHlwZXNdLnhtbFBLAQItABQAAgAIAApgnVkoike4DgAAABEAAAATAAAAAAAAAAAAAAAAAOEBAABGb3JtdWxhcy9TZWN0aW9uMS5tUEsFBgAAAAADAAMAwgAAADwCAAAAABABAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxQZXJtaXNzaW9uTGlzdCB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIiB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIj48Q2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz5mYWxzZTwvQ2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz48RmlyZXdhbGxFbmFibGVkPnRydWU8L0ZpcmV3YWxsRW5hYmxlZD48L1Blcm1pc3Npb25MaXN0PpcBAAAAAAAAdQEAAO+7vzw/eG1sIHZlcnNpb249IjEuMCIgZW5jb2Rpbmc9InV0Zi04Ij8+PExvY2FsUGFja2FnZU1ldGFkYXRhRmlsZSB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIiB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIj48SXRlbXM+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+QWxsRm9ybXVsYXM8L0l0ZW1UeXBlPjxJdGVtUGF0aCAvPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzPjxFbnRyeSBUeXBlPSJSZWxhdGlvbnNoaXBzIiBWYWx1ZT0ic0FBQUFBQT09IiAvPjwvU3RhYmxlRW50cmllcz48L0l0ZW0+PC9JdGVtcz48L0xvY2FsUGFja2FnZU1ldGFkYXRhRmlsZT4WAAAAUEsFBgAAAAAAAAAAAAAAAAAAAAAAACYBAAABAAAA0Iyd3wEV0RGMegDAT8KX6wEAAACi3esFC/abQqhDIomw1rsVAAAAAAIAAAAAABBmAAAAAQAAIAAAAH4agTMBpq9GQxW2poCGeM/3epwtnzimoucqESmxn8VHAAAAAA6AAAAAAgAAIAAAAKJkFY8bTQp5Vd+Jx/iHczZN47aUFeRU8zbcopJS9VyxUAAAAJ++H9H8l6qWt5J1RLCAjXhE3f6dZCUwjsURATX3UlllbH9mwQztcUdGzXADdeV9XWik+kXkFP2KCKMYlYZK64rI4OrNKuDj6F/fp1jadjyjQAAAAJ1Eus4wJbftLjZD07f3SfbD3gIIBL6DO5cWF1lCSilaVEkBcr4IVucUB5YBRQBDRB32ZsT0SMIZ+fEOxDnI6xU=</DataMashup>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2C87573-9216-48A1-8911-0EC1A57D86B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/pinTables.xlsx
+++ b/docs/pinTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shura\HS2024_Projects\Computer-Architecture\Greenhouse-Project\CA-Project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisw\Desktop\CA Project\CA-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C9A9B0-5144-4E68-9927-754AD54749F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF341DA-849B-44E2-B1FE-E1E2C1414BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeftSide" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
   <si>
     <t>Pin</t>
   </si>
@@ -381,13 +381,37 @@
   </si>
   <si>
     <t>Status LED control (Green)</t>
+  </si>
+  <si>
+    <t>Y - Stepper</t>
+  </si>
+  <si>
+    <t>X - Stepper</t>
+  </si>
+  <si>
+    <t>Home Switch Y</t>
+  </si>
+  <si>
+    <t>Home Switch X</t>
+  </si>
+  <si>
+    <t>Y - Stepper (In1)</t>
+  </si>
+  <si>
+    <t>X - Stepper (In1)</t>
+  </si>
+  <si>
+    <t>Y - Stepper (In4)</t>
+  </si>
+  <si>
+    <t>X - Stepper (in4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -399,6 +423,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -442,7 +472,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,7 +556,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,7 +878,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
@@ -1155,13 +1185,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
@@ -1500,7 +1530,130 @@
         <v>39</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1514,7 +1667,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.21875" customWidth="1"/>

--- a/docs/pinTables.xlsx
+++ b/docs/pinTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisw\Desktop\CA Project\CA-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF341DA-849B-44E2-B1FE-E1E2C1414BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D512883B-946D-4FD4-8CAC-D722C68218B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="126">
   <si>
     <t>Pin</t>
   </si>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1273,9 @@
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1283,7 +1285,9 @@
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1619,26 +1623,14 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>

--- a/docs/pinTables.xlsx
+++ b/docs/pinTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisw\Desktop\CA Project\CA-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D512883B-946D-4FD4-8CAC-D722C68218B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CC2035-B969-4215-A9AE-0FBB75494FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
